--- a/correlation.xlsx
+++ b/correlation.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>^GSPC</t>
   </si>
   <si>
-    <t>BTC-USD</t>
+    <t>USD</t>
   </si>
   <si>
     <t>1d</t>
@@ -35,15 +35,6 @@
   </si>
   <si>
     <t>120d</t>
-  </si>
-  <si>
-    <t>GOLD</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>AUDUSD=X</t>
   </si>
 </sst>
 </file>
@@ -422,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,119 +472,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>0.4</v>
-      </c>
-      <c r="D4">
-        <v>0.22</v>
-      </c>
-      <c r="E4">
-        <v>-0.62</v>
-      </c>
-      <c r="F4">
-        <v>-0.62</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0.32</v>
-      </c>
-      <c r="I4">
-        <v>0.52</v>
-      </c>
-      <c r="J4">
-        <v>0.42</v>
-      </c>
-      <c r="K4">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>-1</v>
-      </c>
-      <c r="C5">
-        <v>0.67</v>
-      </c>
-      <c r="D5">
-        <v>0.86</v>
-      </c>
-      <c r="E5">
-        <v>0.9</v>
-      </c>
-      <c r="F5">
-        <v>0.87</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0.62</v>
-      </c>
-      <c r="I5">
-        <v>0.64</v>
-      </c>
-      <c r="J5">
-        <v>-0.18</v>
-      </c>
-      <c r="K5">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>0.39</v>
-      </c>
-      <c r="D6">
-        <v>0.68</v>
-      </c>
-      <c r="E6">
-        <v>-0.08</v>
-      </c>
-      <c r="F6">
-        <v>-0.03</v>
-      </c>
-      <c r="G6">
-        <v>-0.73</v>
-      </c>
-      <c r="H6">
-        <v>0.24</v>
-      </c>
-      <c r="I6">
-        <v>0.76</v>
-      </c>
-      <c r="J6">
-        <v>0.49</v>
-      </c>
-      <c r="K6">
-        <v>0.55</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:K50">
+  <conditionalFormatting sqref="B3:K100">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:K50">
+  <conditionalFormatting sqref="B4:K100">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>0.5</formula>
     </cfRule>

--- a/correlation.xlsx
+++ b/correlation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>^GSPC</t>
   </si>
@@ -35,6 +35,51 @@
   </si>
   <si>
     <t>120d</t>
+  </si>
+  <si>
+    <t>AUDUSD=X</t>
+  </si>
+  <si>
+    <t>GBPUSD=X</t>
+  </si>
+  <si>
+    <t>EURUSD=X</t>
+  </si>
+  <si>
+    <t>JPYUSD=X</t>
+  </si>
+  <si>
+    <t>CHFUSD=X</t>
+  </si>
+  <si>
+    <t>MXNUSD=X</t>
+  </si>
+  <si>
+    <t>NZDUSD=X</t>
+  </si>
+  <si>
+    <t>BTC-USD</t>
+  </si>
+  <si>
+    <t>^NDX</t>
+  </si>
+  <si>
+    <t>^DJI</t>
+  </si>
+  <si>
+    <t>UCO</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>^RUT</t>
+  </si>
+  <si>
+    <t>CORN</t>
+  </si>
+  <si>
+    <t>GOLD</t>
   </si>
 </sst>
 </file>
@@ -413,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -470,6 +515,601 @@
       </c>
       <c r="K2" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>-0.93</v>
+      </c>
+      <c r="C4">
+        <v>0.52</v>
+      </c>
+      <c r="D4">
+        <v>0.83</v>
+      </c>
+      <c r="E4">
+        <v>-0.06</v>
+      </c>
+      <c r="F4">
+        <v>-0.04</v>
+      </c>
+      <c r="G4">
+        <v>-0.6</v>
+      </c>
+      <c r="H4">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.58</v>
+      </c>
+      <c r="J4">
+        <v>-0.28</v>
+      </c>
+      <c r="K4">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>-0.82</v>
+      </c>
+      <c r="C5">
+        <v>-0.29</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.31</v>
+      </c>
+      <c r="F5">
+        <v>0.26</v>
+      </c>
+      <c r="G5">
+        <v>-0.41</v>
+      </c>
+      <c r="H5">
+        <v>0.37</v>
+      </c>
+      <c r="I5">
+        <v>0.29</v>
+      </c>
+      <c r="J5">
+        <v>0.27</v>
+      </c>
+      <c r="K5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.57</v>
+      </c>
+      <c r="C6">
+        <v>0.43</v>
+      </c>
+      <c r="D6">
+        <v>0.23</v>
+      </c>
+      <c r="E6">
+        <v>0.51</v>
+      </c>
+      <c r="F6">
+        <v>0.46</v>
+      </c>
+      <c r="G6">
+        <v>0.26</v>
+      </c>
+      <c r="H6">
+        <v>0.7</v>
+      </c>
+      <c r="I6">
+        <v>0.52</v>
+      </c>
+      <c r="J6">
+        <v>0.57</v>
+      </c>
+      <c r="K6">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>-0.9</v>
+      </c>
+      <c r="C7">
+        <v>-0.49</v>
+      </c>
+      <c r="D7">
+        <v>-0.8</v>
+      </c>
+      <c r="E7">
+        <v>0.12</v>
+      </c>
+      <c r="F7">
+        <v>0.21</v>
+      </c>
+      <c r="G7">
+        <v>-0.48</v>
+      </c>
+      <c r="H7">
+        <v>0.18</v>
+      </c>
+      <c r="I7">
+        <v>-0.49</v>
+      </c>
+      <c r="J7">
+        <v>0.39</v>
+      </c>
+      <c r="K7">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>-0.51</v>
+      </c>
+      <c r="C8">
+        <v>0.46</v>
+      </c>
+      <c r="D8">
+        <v>0.04</v>
+      </c>
+      <c r="E8">
+        <v>0.47</v>
+      </c>
+      <c r="F8">
+        <v>0.34</v>
+      </c>
+      <c r="G8">
+        <v>-0.61</v>
+      </c>
+      <c r="H8">
+        <v>0.25</v>
+      </c>
+      <c r="I8">
+        <v>0.17</v>
+      </c>
+      <c r="J8">
+        <v>0.52</v>
+      </c>
+      <c r="K8">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0.75</v>
+      </c>
+      <c r="C9">
+        <v>0.63</v>
+      </c>
+      <c r="D9">
+        <v>0.85</v>
+      </c>
+      <c r="E9">
+        <v>0.9</v>
+      </c>
+      <c r="F9">
+        <v>0.87</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>-0.2</v>
+      </c>
+      <c r="C10">
+        <v>0.76</v>
+      </c>
+      <c r="D10">
+        <v>0.95</v>
+      </c>
+      <c r="E10">
+        <v>0.18</v>
+      </c>
+      <c r="F10">
+        <v>-0.04</v>
+      </c>
+      <c r="G10">
+        <v>-0.11</v>
+      </c>
+      <c r="H10">
+        <v>0.25</v>
+      </c>
+      <c r="I10">
+        <v>0.75</v>
+      </c>
+      <c r="J10">
+        <v>-0.15</v>
+      </c>
+      <c r="K10">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>-0.92</v>
+      </c>
+      <c r="C11">
+        <v>0.32</v>
+      </c>
+      <c r="D11">
+        <v>0.73</v>
+      </c>
+      <c r="E11">
+        <v>0.17</v>
+      </c>
+      <c r="F11">
+        <v>0.26</v>
+      </c>
+      <c r="G11">
+        <v>-0.61</v>
+      </c>
+      <c r="H11">
+        <v>0.44</v>
+      </c>
+      <c r="I11">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J11">
+        <v>0.08</v>
+      </c>
+      <c r="K11">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0.29</v>
+      </c>
+      <c r="C12">
+        <v>0.28</v>
+      </c>
+      <c r="D12">
+        <v>0.72</v>
+      </c>
+      <c r="E12">
+        <v>-0.11</v>
+      </c>
+      <c r="F12">
+        <v>0.15</v>
+      </c>
+      <c r="G12">
+        <v>0.23</v>
+      </c>
+      <c r="H12">
+        <v>0.66</v>
+      </c>
+      <c r="I12">
+        <v>0.58</v>
+      </c>
+      <c r="J12">
+        <v>-0.19</v>
+      </c>
+      <c r="K12">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.75</v>
+      </c>
+      <c r="H13">
+        <v>0.63</v>
+      </c>
+      <c r="I13">
+        <v>0.85</v>
+      </c>
+      <c r="J13">
+        <v>0.9</v>
+      </c>
+      <c r="K13">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0.89</v>
+      </c>
+      <c r="C14">
+        <v>0.97</v>
+      </c>
+      <c r="D14">
+        <v>0.99</v>
+      </c>
+      <c r="E14">
+        <v>0.96</v>
+      </c>
+      <c r="F14">
+        <v>0.95</v>
+      </c>
+      <c r="G14">
+        <v>0.97</v>
+      </c>
+      <c r="H14">
+        <v>0.6</v>
+      </c>
+      <c r="I14">
+        <v>0.87</v>
+      </c>
+      <c r="J14">
+        <v>0.97</v>
+      </c>
+      <c r="K14">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>0.93</v>
+      </c>
+      <c r="C15">
+        <v>0.9</v>
+      </c>
+      <c r="D15">
+        <v>0.98</v>
+      </c>
+      <c r="E15">
+        <v>0.96</v>
+      </c>
+      <c r="F15">
+        <v>0.95</v>
+      </c>
+      <c r="G15">
+        <v>0.46</v>
+      </c>
+      <c r="H15">
+        <v>0.73</v>
+      </c>
+      <c r="I15">
+        <v>0.84</v>
+      </c>
+      <c r="J15">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K15">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>0.92</v>
+      </c>
+      <c r="C16">
+        <v>-0.22</v>
+      </c>
+      <c r="D16">
+        <v>0.01</v>
+      </c>
+      <c r="E16">
+        <v>-0.61</v>
+      </c>
+      <c r="F16">
+        <v>-0.65</v>
+      </c>
+      <c r="G16">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.16</v>
+      </c>
+      <c r="I16">
+        <v>-0.04</v>
+      </c>
+      <c r="J16">
+        <v>-0.78</v>
+      </c>
+      <c r="K16">
+        <v>-0.73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>0.41</v>
+      </c>
+      <c r="C17">
+        <v>-0.15</v>
+      </c>
+      <c r="D17">
+        <v>-0.13</v>
+      </c>
+      <c r="E17">
+        <v>-0.64</v>
+      </c>
+      <c r="F17">
+        <v>-0.67</v>
+      </c>
+      <c r="G17">
+        <v>0.85</v>
+      </c>
+      <c r="H17">
+        <v>0.47</v>
+      </c>
+      <c r="I17">
+        <v>-0.04</v>
+      </c>
+      <c r="J17">
+        <v>-0.79</v>
+      </c>
+      <c r="K17">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>0.91</v>
+      </c>
+      <c r="C18">
+        <v>0.64</v>
+      </c>
+      <c r="D18">
+        <v>0.9</v>
+      </c>
+      <c r="E18">
+        <v>0.9</v>
+      </c>
+      <c r="F18">
+        <v>0.78</v>
+      </c>
+      <c r="G18">
+        <v>0.95</v>
+      </c>
+      <c r="H18">
+        <v>0.86</v>
+      </c>
+      <c r="I18">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J18">
+        <v>0.96</v>
+      </c>
+      <c r="K18">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>0.79</v>
+      </c>
+      <c r="C19">
+        <v>-0.24</v>
+      </c>
+      <c r="D19">
+        <v>0.38</v>
+      </c>
+      <c r="E19">
+        <v>-0.55</v>
+      </c>
+      <c r="F19">
+        <v>-0.58</v>
+      </c>
+      <c r="G19">
+        <v>0.2</v>
+      </c>
+      <c r="H19">
+        <v>-0.78</v>
+      </c>
+      <c r="I19">
+        <v>-0.02</v>
+      </c>
+      <c r="J19">
+        <v>-0.71</v>
+      </c>
+      <c r="K19">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>0.4</v>
+      </c>
+      <c r="C20">
+        <v>0.38</v>
+      </c>
+      <c r="D20">
+        <v>0.23</v>
+      </c>
+      <c r="E20">
+        <v>-0.62</v>
+      </c>
+      <c r="F20">
+        <v>-0.62</v>
+      </c>
+      <c r="G20">
+        <v>-0.25</v>
+      </c>
+      <c r="H20">
+        <v>-0.23</v>
+      </c>
+      <c r="I20">
+        <v>-0.02</v>
+      </c>
+      <c r="J20">
+        <v>-0.72</v>
+      </c>
+      <c r="K20">
+        <v>-0.62</v>
       </c>
     </row>
   </sheetData>

--- a/correlation.xlsx
+++ b/correlation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>^GSPC</t>
   </si>
@@ -35,6 +35,90 @@
   </si>
   <si>
     <t>120d</t>
+  </si>
+  <si>
+    <t>AUDUSD=X</t>
+  </si>
+  <si>
+    <t>GBPUSD=X</t>
+  </si>
+  <si>
+    <t>EURUSD=X</t>
+  </si>
+  <si>
+    <t>JPYUSD=X</t>
+  </si>
+  <si>
+    <t>CHFUSD=X</t>
+  </si>
+  <si>
+    <t>MXNUSD=X</t>
+  </si>
+  <si>
+    <t>NZDUSD=X</t>
+  </si>
+  <si>
+    <t>BTC-USD</t>
+  </si>
+  <si>
+    <t>^NDX</t>
+  </si>
+  <si>
+    <t>^DJI</t>
+  </si>
+  <si>
+    <t>^RUT</t>
+  </si>
+  <si>
+    <t>UCO</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>KOLD</t>
+  </si>
+  <si>
+    <t>CORN</t>
+  </si>
+  <si>
+    <t>ZS=F</t>
+  </si>
+  <si>
+    <t>ZL=F</t>
+  </si>
+  <si>
+    <t>ZM=F</t>
+  </si>
+  <si>
+    <t>ZW=F</t>
+  </si>
+  <si>
+    <t>KE=F</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>SI=F</t>
+  </si>
+  <si>
+    <t>HG=F</t>
+  </si>
+  <si>
+    <t>PA=F</t>
+  </si>
+  <si>
+    <t>CC=F</t>
+  </si>
+  <si>
+    <t>CT=F</t>
+  </si>
+  <si>
+    <t>KC=F</t>
+  </si>
+  <si>
+    <t>SB=F</t>
   </si>
 </sst>
 </file>
@@ -413,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -470,6 +554,1056 @@
       </c>
       <c r="K2" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>-0.5</v>
+      </c>
+      <c r="C4">
+        <v>0.26</v>
+      </c>
+      <c r="D4">
+        <v>0.72</v>
+      </c>
+      <c r="E4">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="F4">
+        <v>-0.03</v>
+      </c>
+      <c r="G4">
+        <v>-0.19</v>
+      </c>
+      <c r="H4">
+        <v>-0.09</v>
+      </c>
+      <c r="I4">
+        <v>0.4</v>
+      </c>
+      <c r="J4">
+        <v>-0.3</v>
+      </c>
+      <c r="K4">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>-0.67</v>
+      </c>
+      <c r="C5">
+        <v>-0.24</v>
+      </c>
+      <c r="D5">
+        <v>-0.12</v>
+      </c>
+      <c r="E5">
+        <v>0.23</v>
+      </c>
+      <c r="F5">
+        <v>0.22</v>
+      </c>
+      <c r="G5">
+        <v>0.01</v>
+      </c>
+      <c r="H5">
+        <v>0.49</v>
+      </c>
+      <c r="I5">
+        <v>0.18</v>
+      </c>
+      <c r="J5">
+        <v>0.25</v>
+      </c>
+      <c r="K5">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>-0.08</v>
+      </c>
+      <c r="C6">
+        <v>0.25</v>
+      </c>
+      <c r="D6">
+        <v>0.19</v>
+      </c>
+      <c r="E6">
+        <v>0.47</v>
+      </c>
+      <c r="F6">
+        <v>0.44</v>
+      </c>
+      <c r="G6">
+        <v>-0.61</v>
+      </c>
+      <c r="H6">
+        <v>0.57</v>
+      </c>
+      <c r="I6">
+        <v>0.44</v>
+      </c>
+      <c r="J6">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>-0.73</v>
+      </c>
+      <c r="C7">
+        <v>-0.39</v>
+      </c>
+      <c r="D7">
+        <v>-0.84</v>
+      </c>
+      <c r="E7">
+        <v>0.09</v>
+      </c>
+      <c r="F7">
+        <v>0.19</v>
+      </c>
+      <c r="G7">
+        <v>-0.05</v>
+      </c>
+      <c r="H7">
+        <v>0.32</v>
+      </c>
+      <c r="I7">
+        <v>-0.46</v>
+      </c>
+      <c r="J7">
+        <v>0.39</v>
+      </c>
+      <c r="K7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.18</v>
+      </c>
+      <c r="D8">
+        <v>-0.17</v>
+      </c>
+      <c r="E8">
+        <v>0.37</v>
+      </c>
+      <c r="F8">
+        <v>0.27</v>
+      </c>
+      <c r="G8">
+        <v>-0.54</v>
+      </c>
+      <c r="H8">
+        <v>0.03</v>
+      </c>
+      <c r="I8">
+        <v>-0.09</v>
+      </c>
+      <c r="J8">
+        <v>0.47</v>
+      </c>
+      <c r="K8">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+      <c r="C9">
+        <v>0.63</v>
+      </c>
+      <c r="D9">
+        <v>0.8</v>
+      </c>
+      <c r="E9">
+        <v>0.9</v>
+      </c>
+      <c r="F9">
+        <v>0.87</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <v>0.49</v>
+      </c>
+      <c r="D10">
+        <v>0.9</v>
+      </c>
+      <c r="E10">
+        <v>0.13</v>
+      </c>
+      <c r="F10">
+        <v>-0.05</v>
+      </c>
+      <c r="G10">
+        <v>-0.52</v>
+      </c>
+      <c r="H10">
+        <v>-0.05</v>
+      </c>
+      <c r="I10">
+        <v>0.6</v>
+      </c>
+      <c r="J10">
+        <v>-0.19</v>
+      </c>
+      <c r="K10">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>-0.63</v>
+      </c>
+      <c r="C11">
+        <v>0.02</v>
+      </c>
+      <c r="D11">
+        <v>0.64</v>
+      </c>
+      <c r="E11">
+        <v>0.16</v>
+      </c>
+      <c r="F11">
+        <v>0.28</v>
+      </c>
+      <c r="G11">
+        <v>-0.05</v>
+      </c>
+      <c r="H11">
+        <v>0.37</v>
+      </c>
+      <c r="I11">
+        <v>0.44</v>
+      </c>
+      <c r="J11">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>-0.15</v>
+      </c>
+      <c r="C12">
+        <v>0.42</v>
+      </c>
+      <c r="D12">
+        <v>0.77</v>
+      </c>
+      <c r="E12">
+        <v>-0.09</v>
+      </c>
+      <c r="F12">
+        <v>0.17</v>
+      </c>
+      <c r="G12">
+        <v>-0.64</v>
+      </c>
+      <c r="H12">
+        <v>0.71</v>
+      </c>
+      <c r="I12">
+        <v>0.62</v>
+      </c>
+      <c r="J12">
+        <v>-0.2</v>
+      </c>
+      <c r="K12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>0.63</v>
+      </c>
+      <c r="I13">
+        <v>0.8</v>
+      </c>
+      <c r="J13">
+        <v>0.9</v>
+      </c>
+      <c r="K13">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0.55</v>
+      </c>
+      <c r="C14">
+        <v>0.95</v>
+      </c>
+      <c r="D14">
+        <v>0.99</v>
+      </c>
+      <c r="E14">
+        <v>0.96</v>
+      </c>
+      <c r="F14">
+        <v>0.95</v>
+      </c>
+      <c r="G14">
+        <v>0.88</v>
+      </c>
+      <c r="H14">
+        <v>0.68</v>
+      </c>
+      <c r="I14">
+        <v>0.84</v>
+      </c>
+      <c r="J14">
+        <v>0.97</v>
+      </c>
+      <c r="K14">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>0.92</v>
+      </c>
+      <c r="C15">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D15">
+        <v>0.98</v>
+      </c>
+      <c r="E15">
+        <v>0.96</v>
+      </c>
+      <c r="F15">
+        <v>0.95</v>
+      </c>
+      <c r="G15">
+        <v>-0.29</v>
+      </c>
+      <c r="H15">
+        <v>0.61</v>
+      </c>
+      <c r="I15">
+        <v>0.78</v>
+      </c>
+      <c r="J15">
+        <v>0.83</v>
+      </c>
+      <c r="K15">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>0.89</v>
+      </c>
+      <c r="C16">
+        <v>0.7</v>
+      </c>
+      <c r="D16">
+        <v>0.87</v>
+      </c>
+      <c r="E16">
+        <v>0.9</v>
+      </c>
+      <c r="F16">
+        <v>0.78</v>
+      </c>
+      <c r="G16">
+        <v>0.44</v>
+      </c>
+      <c r="H16">
+        <v>0.89</v>
+      </c>
+      <c r="I16">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J16">
+        <v>0.96</v>
+      </c>
+      <c r="K16">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>0.67</v>
+      </c>
+      <c r="C17">
+        <v>-0.29</v>
+      </c>
+      <c r="D17">
+        <v>-0.01</v>
+      </c>
+      <c r="E17">
+        <v>-0.62</v>
+      </c>
+      <c r="F17">
+        <v>-0.65</v>
+      </c>
+      <c r="G17">
+        <v>0.46</v>
+      </c>
+      <c r="H17">
+        <v>0.27</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>-0.77</v>
+      </c>
+      <c r="K17">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>0.54</v>
+      </c>
+      <c r="C18">
+        <v>-0.13</v>
+      </c>
+      <c r="D18">
+        <v>-0.17</v>
+      </c>
+      <c r="E18">
+        <v>-0.64</v>
+      </c>
+      <c r="F18">
+        <v>-0.68</v>
+      </c>
+      <c r="G18">
+        <v>0.14</v>
+      </c>
+      <c r="H18">
+        <v>0.55</v>
+      </c>
+      <c r="I18">
+        <v>0.02</v>
+      </c>
+      <c r="J18">
+        <v>-0.79</v>
+      </c>
+      <c r="K18">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>-0.65</v>
+      </c>
+      <c r="C19">
+        <v>-0.06</v>
+      </c>
+      <c r="D19">
+        <v>-0.78</v>
+      </c>
+      <c r="E19">
+        <v>0.62</v>
+      </c>
+      <c r="F19">
+        <v>0.57</v>
+      </c>
+      <c r="G19">
+        <v>0.22</v>
+      </c>
+      <c r="H19">
+        <v>0.64</v>
+      </c>
+      <c r="I19">
+        <v>-0.32</v>
+      </c>
+      <c r="J19">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K19">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>0.82</v>
+      </c>
+      <c r="C20">
+        <v>-0.45</v>
+      </c>
+      <c r="D20">
+        <v>0.45</v>
+      </c>
+      <c r="E20">
+        <v>-0.54</v>
+      </c>
+      <c r="F20">
+        <v>-0.58</v>
+      </c>
+      <c r="G20">
+        <v>-0.47</v>
+      </c>
+      <c r="H20">
+        <v>-0.9</v>
+      </c>
+      <c r="I20">
+        <v>-0.06</v>
+      </c>
+      <c r="J20">
+        <v>-0.71</v>
+      </c>
+      <c r="K20">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>0.6</v>
+      </c>
+      <c r="C21">
+        <v>-0.25</v>
+      </c>
+      <c r="D21">
+        <v>-0.39</v>
+      </c>
+      <c r="E21">
+        <v>-0.67</v>
+      </c>
+      <c r="F21">
+        <v>-0.7</v>
+      </c>
+      <c r="G21">
+        <v>-0.52</v>
+      </c>
+      <c r="H21">
+        <v>0.21</v>
+      </c>
+      <c r="I21">
+        <v>-0.09</v>
+      </c>
+      <c r="J21">
+        <v>-0.74</v>
+      </c>
+      <c r="K21">
+        <v>-0.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>0.41</v>
+      </c>
+      <c r="C22">
+        <v>-0.44</v>
+      </c>
+      <c r="D22">
+        <v>-0.83</v>
+      </c>
+      <c r="E22">
+        <v>-0.76</v>
+      </c>
+      <c r="F22">
+        <v>-0.77</v>
+      </c>
+      <c r="G22">
+        <v>-0.32</v>
+      </c>
+      <c r="H22">
+        <v>0.04</v>
+      </c>
+      <c r="I22">
+        <v>-0.61</v>
+      </c>
+      <c r="J22">
+        <v>-0.8</v>
+      </c>
+      <c r="K22">
+        <v>-0.84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>0.54</v>
+      </c>
+      <c r="C23">
+        <v>-0.12</v>
+      </c>
+      <c r="D23">
+        <v>-0.65</v>
+      </c>
+      <c r="E23">
+        <v>-0.51</v>
+      </c>
+      <c r="F23">
+        <v>-0.58</v>
+      </c>
+      <c r="G23">
+        <v>-0.17</v>
+      </c>
+      <c r="H23">
+        <v>0.43</v>
+      </c>
+      <c r="I23">
+        <v>-0.31</v>
+      </c>
+      <c r="J23">
+        <v>-0.53</v>
+      </c>
+      <c r="K23">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>0.86</v>
+      </c>
+      <c r="C24">
+        <v>-0.42</v>
+      </c>
+      <c r="D24">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="E24">
+        <v>-0.51</v>
+      </c>
+      <c r="F24">
+        <v>-0.55</v>
+      </c>
+      <c r="G24">
+        <v>-0.19</v>
+      </c>
+      <c r="H24">
+        <v>0.12</v>
+      </c>
+      <c r="I24">
+        <v>-0.4</v>
+      </c>
+      <c r="J24">
+        <v>-0.54</v>
+      </c>
+      <c r="K24">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0.71</v>
+      </c>
+      <c r="C25">
+        <v>-0.64</v>
+      </c>
+      <c r="D25">
+        <v>-0.58</v>
+      </c>
+      <c r="E25">
+        <v>-0.5</v>
+      </c>
+      <c r="F25">
+        <v>-0.54</v>
+      </c>
+      <c r="G25">
+        <v>-0.22</v>
+      </c>
+      <c r="H25">
+        <v>-0.27</v>
+      </c>
+      <c r="I25">
+        <v>-0.46</v>
+      </c>
+      <c r="J25">
+        <v>-0.55</v>
+      </c>
+      <c r="K25">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.12</v>
+      </c>
+      <c r="D26">
+        <v>0.27</v>
+      </c>
+      <c r="E26">
+        <v>-0.61</v>
+      </c>
+      <c r="F26">
+        <v>-0.61</v>
+      </c>
+      <c r="G26">
+        <v>-0.7</v>
+      </c>
+      <c r="H26">
+        <v>-0.49</v>
+      </c>
+      <c r="I26">
+        <v>-0.04</v>
+      </c>
+      <c r="J26">
+        <v>-0.73</v>
+      </c>
+      <c r="K26">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>-0.54</v>
+      </c>
+      <c r="C27">
+        <v>-0.04</v>
+      </c>
+      <c r="D27">
+        <v>-0.64</v>
+      </c>
+      <c r="E27">
+        <v>-0.62</v>
+      </c>
+      <c r="F27">
+        <v>-0.6</v>
+      </c>
+      <c r="G27">
+        <v>-0.59</v>
+      </c>
+      <c r="H27">
+        <v>0.55</v>
+      </c>
+      <c r="I27">
+        <v>-0.27</v>
+      </c>
+      <c r="J27">
+        <v>-0.61</v>
+      </c>
+      <c r="K27">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>-0.83</v>
+      </c>
+      <c r="C28">
+        <v>-0.1</v>
+      </c>
+      <c r="D28">
+        <v>0.66</v>
+      </c>
+      <c r="E28">
+        <v>-0.31</v>
+      </c>
+      <c r="F28">
+        <v>-0.45</v>
+      </c>
+      <c r="G28">
+        <v>0.24</v>
+      </c>
+      <c r="H28">
+        <v>-0.1</v>
+      </c>
+      <c r="I28">
+        <v>0.48</v>
+      </c>
+      <c r="J28">
+        <v>-0.45</v>
+      </c>
+      <c r="K28">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>0.86</v>
+      </c>
+      <c r="C29">
+        <v>-0.52</v>
+      </c>
+      <c r="D29">
+        <v>-0.78</v>
+      </c>
+      <c r="E29">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="F29">
+        <v>-0.79</v>
+      </c>
+      <c r="G29">
+        <v>-0.04</v>
+      </c>
+      <c r="H29">
+        <v>-0.04</v>
+      </c>
+      <c r="I29">
+        <v>-0.51</v>
+      </c>
+      <c r="J29">
+        <v>-0.78</v>
+      </c>
+      <c r="K29">
+        <v>-0.82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>0.55</v>
+      </c>
+      <c r="C30">
+        <v>0.21</v>
+      </c>
+      <c r="D30">
+        <v>0.19</v>
+      </c>
+      <c r="E30">
+        <v>-0.16</v>
+      </c>
+      <c r="F30">
+        <v>-0.27</v>
+      </c>
+      <c r="G30">
+        <v>0.03</v>
+      </c>
+      <c r="H30">
+        <v>0.15</v>
+      </c>
+      <c r="I30">
+        <v>0.13</v>
+      </c>
+      <c r="J30">
+        <v>-0.25</v>
+      </c>
+      <c r="K30">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>-0</v>
+      </c>
+      <c r="C31">
+        <v>0.72</v>
+      </c>
+      <c r="D31">
+        <v>0.91</v>
+      </c>
+      <c r="E31">
+        <v>-0.22</v>
+      </c>
+      <c r="F31">
+        <v>-0.36</v>
+      </c>
+      <c r="G31">
+        <v>0.28</v>
+      </c>
+      <c r="H31">
+        <v>0.41</v>
+      </c>
+      <c r="I31">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J31">
+        <v>-0.49</v>
+      </c>
+      <c r="K31">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>0.82</v>
+      </c>
+      <c r="C32">
+        <v>-0.5</v>
+      </c>
+      <c r="D32">
+        <v>-0.04</v>
+      </c>
+      <c r="E32">
+        <v>-0.04</v>
+      </c>
+      <c r="F32">
+        <v>0.04</v>
+      </c>
+      <c r="G32">
+        <v>-0.16</v>
+      </c>
+      <c r="H32">
+        <v>-0.77</v>
+      </c>
+      <c r="I32">
+        <v>-0.29</v>
+      </c>
+      <c r="J32">
+        <v>0.01</v>
+      </c>
+      <c r="K32">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>0.68</v>
+      </c>
+      <c r="C33">
+        <v>-0.26</v>
+      </c>
+      <c r="D33">
+        <v>0.43</v>
+      </c>
+      <c r="E33">
+        <v>-0.01</v>
+      </c>
+      <c r="F33">
+        <v>0.25</v>
+      </c>
+      <c r="G33">
+        <v>-0.29</v>
+      </c>
+      <c r="H33">
+        <v>-0.68</v>
+      </c>
+      <c r="I33">
+        <v>0.04</v>
+      </c>
+      <c r="J33">
+        <v>-0.15</v>
+      </c>
+      <c r="K33">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>

--- a/correlation.xlsx
+++ b/correlation.xlsx
@@ -561,34 +561,34 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.5</v>
+        <v>-0.49</v>
       </c>
       <c r="C4">
-        <v>0.26</v>
+        <v>0.45</v>
       </c>
       <c r="D4">
-        <v>0.72</v>
+        <v>0.87</v>
       </c>
       <c r="E4">
-        <v>-0.07000000000000001</v>
+        <v>-0.05</v>
       </c>
       <c r="F4">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="G4">
-        <v>-0.19</v>
+        <v>-0.21</v>
       </c>
       <c r="H4">
-        <v>-0.09</v>
+        <v>0.15</v>
       </c>
       <c r="I4">
-        <v>0.4</v>
+        <v>0.59</v>
       </c>
       <c r="J4">
-        <v>-0.3</v>
+        <v>-0.28</v>
       </c>
       <c r="K4">
-        <v>-0.35</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -596,34 +596,34 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>-0.67</v>
+        <v>-0.44</v>
       </c>
       <c r="C5">
-        <v>-0.24</v>
+        <v>-0.19</v>
       </c>
       <c r="D5">
-        <v>-0.12</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="F5">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
+        <v>-0.45</v>
       </c>
       <c r="H5">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="I5">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
       <c r="J5">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="K5">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -631,34 +631,34 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.08</v>
+        <v>0.26</v>
       </c>
       <c r="C6">
-        <v>0.25</v>
+        <v>0.54</v>
       </c>
       <c r="D6">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="E6">
+        <v>0.51</v>
+      </c>
+      <c r="F6">
         <v>0.47</v>
       </c>
-      <c r="F6">
-        <v>0.44</v>
-      </c>
       <c r="G6">
-        <v>-0.61</v>
+        <v>-0.79</v>
       </c>
       <c r="H6">
-        <v>0.57</v>
+        <v>0.72</v>
       </c>
       <c r="I6">
-        <v>0.44</v>
+        <v>0.54</v>
       </c>
       <c r="J6">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="K6">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -666,34 +666,34 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.73</v>
+        <v>-0.78</v>
       </c>
       <c r="C7">
-        <v>-0.39</v>
+        <v>-0.2</v>
       </c>
       <c r="D7">
-        <v>-0.84</v>
+        <v>-0.8</v>
       </c>
       <c r="E7">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="F7">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="G7">
-        <v>-0.05</v>
+        <v>0.68</v>
       </c>
       <c r="H7">
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
       <c r="I7">
-        <v>-0.46</v>
+        <v>-0.41</v>
       </c>
       <c r="J7">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="K7">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -701,34 +701,34 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>-0.54</v>
       </c>
       <c r="C8">
+        <v>0.46</v>
+      </c>
+      <c r="D8">
+        <v>0.04</v>
+      </c>
+      <c r="E8">
+        <v>0.46</v>
+      </c>
+      <c r="F8">
+        <v>0.35</v>
+      </c>
+      <c r="G8">
+        <v>-0.45</v>
+      </c>
+      <c r="H8">
+        <v>0.31</v>
+      </c>
+      <c r="I8">
         <v>0.18</v>
       </c>
-      <c r="D8">
-        <v>-0.17</v>
-      </c>
-      <c r="E8">
-        <v>0.37</v>
-      </c>
-      <c r="F8">
-        <v>0.27</v>
-      </c>
-      <c r="G8">
-        <v>-0.54</v>
-      </c>
-      <c r="H8">
-        <v>0.03</v>
-      </c>
-      <c r="I8">
-        <v>-0.09</v>
-      </c>
       <c r="J8">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="K8">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -736,10 +736,10 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>-0.18</v>
       </c>
       <c r="C9">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="D9">
         <v>0.8</v>
@@ -771,34 +771,34 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>-0.34</v>
       </c>
       <c r="C10">
-        <v>0.49</v>
+        <v>0.68</v>
       </c>
       <c r="D10">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="E10">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="F10">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="G10">
-        <v>-0.52</v>
+        <v>-0.47</v>
       </c>
       <c r="H10">
-        <v>-0.05</v>
+        <v>0.17</v>
       </c>
       <c r="I10">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="J10">
-        <v>-0.19</v>
+        <v>-0.15</v>
       </c>
       <c r="K10">
-        <v>-0.39</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -806,34 +806,34 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.63</v>
+        <v>-0.36</v>
       </c>
       <c r="C11">
-        <v>0.02</v>
+        <v>0.32</v>
       </c>
       <c r="D11">
+        <v>0.79</v>
+      </c>
+      <c r="E11">
+        <v>0.17</v>
+      </c>
+      <c r="F11">
+        <v>0.27</v>
+      </c>
+      <c r="G11">
+        <v>-0.49</v>
+      </c>
+      <c r="H11">
+        <v>0.58</v>
+      </c>
+      <c r="I11">
         <v>0.64</v>
-      </c>
-      <c r="E11">
-        <v>0.16</v>
-      </c>
-      <c r="F11">
-        <v>0.28</v>
-      </c>
-      <c r="G11">
-        <v>-0.05</v>
-      </c>
-      <c r="H11">
-        <v>0.37</v>
-      </c>
-      <c r="I11">
-        <v>0.44</v>
       </c>
       <c r="J11">
         <v>0.07000000000000001</v>
       </c>
       <c r="K11">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -841,34 +841,34 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-0.15</v>
+        <v>-0.21</v>
       </c>
       <c r="C12">
-        <v>0.42</v>
+        <v>0.14</v>
       </c>
       <c r="D12">
-        <v>0.77</v>
+        <v>0.54</v>
       </c>
       <c r="E12">
-        <v>-0.09</v>
+        <v>-0.11</v>
       </c>
       <c r="F12">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="G12">
-        <v>-0.64</v>
+        <v>0.45</v>
       </c>
       <c r="H12">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
       <c r="I12">
-        <v>0.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J12">
-        <v>-0.2</v>
+        <v>-0.18</v>
       </c>
       <c r="K12">
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -891,10 +891,10 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1</v>
+        <v>-0.18</v>
       </c>
       <c r="H13">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="I13">
         <v>0.8</v>
@@ -911,7 +911,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.55</v>
+        <v>0.23</v>
       </c>
       <c r="C14">
         <v>0.95</v>
@@ -926,10 +926,10 @@
         <v>0.95</v>
       </c>
       <c r="G14">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="H14">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="I14">
         <v>0.84</v>
@@ -946,7 +946,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="C15">
         <v>0.9399999999999999</v>
@@ -961,10 +961,10 @@
         <v>0.95</v>
       </c>
       <c r="G15">
-        <v>-0.29</v>
+        <v>-0.61</v>
       </c>
       <c r="H15">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="I15">
         <v>0.78</v>
@@ -981,13 +981,13 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="C16">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="D16">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E16">
         <v>0.9</v>
@@ -996,10 +996,10 @@
         <v>0.78</v>
       </c>
       <c r="G16">
-        <v>0.44</v>
+        <v>0.18</v>
       </c>
       <c r="H16">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="I16">
         <v>0.9399999999999999</v>
@@ -1016,10 +1016,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="C17">
-        <v>-0.29</v>
+        <v>-0.31</v>
       </c>
       <c r="D17">
         <v>-0.01</v>
@@ -1031,16 +1031,16 @@
         <v>-0.65</v>
       </c>
       <c r="G17">
-        <v>0.46</v>
+        <v>-0.51</v>
       </c>
       <c r="H17">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="J17">
-        <v>-0.77</v>
+        <v>-0.78</v>
       </c>
       <c r="K17">
         <v>-0.74</v>
@@ -1051,13 +1051,13 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>-0.13</v>
+        <v>-0.12</v>
       </c>
       <c r="D18">
-        <v>-0.17</v>
+        <v>-0.16</v>
       </c>
       <c r="E18">
         <v>-0.64</v>
@@ -1066,13 +1066,13 @@
         <v>-0.68</v>
       </c>
       <c r="G18">
-        <v>0.14</v>
+        <v>-0.62</v>
       </c>
       <c r="H18">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="I18">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J18">
         <v>-0.79</v>
@@ -1086,13 +1086,13 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>-0.65</v>
+        <v>-0.67</v>
       </c>
       <c r="C19">
-        <v>-0.06</v>
+        <v>-0.01</v>
       </c>
       <c r="D19">
-        <v>-0.78</v>
+        <v>-0.77</v>
       </c>
       <c r="E19">
         <v>0.62</v>
@@ -1101,19 +1101,19 @@
         <v>0.57</v>
       </c>
       <c r="G19">
-        <v>0.22</v>
+        <v>0.31</v>
       </c>
       <c r="H19">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="I19">
-        <v>-0.32</v>
+        <v>-0.3</v>
       </c>
       <c r="J19">
         <v>0.8100000000000001</v>
       </c>
       <c r="K19">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1121,13 +1121,13 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="C20">
-        <v>-0.45</v>
+        <v>-0.49</v>
       </c>
       <c r="D20">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="E20">
         <v>-0.54</v>
@@ -1136,13 +1136,13 @@
         <v>-0.58</v>
       </c>
       <c r="G20">
-        <v>-0.47</v>
+        <v>-0.75</v>
       </c>
       <c r="H20">
         <v>-0.9</v>
       </c>
       <c r="I20">
-        <v>-0.06</v>
+        <v>-0.08</v>
       </c>
       <c r="J20">
         <v>-0.71</v>
@@ -1156,34 +1156,34 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.6</v>
+        <v>-0.41</v>
       </c>
       <c r="C21">
         <v>-0.25</v>
       </c>
       <c r="D21">
-        <v>-0.39</v>
+        <v>-0.38</v>
       </c>
       <c r="E21">
-        <v>-0.67</v>
+        <v>-0.68</v>
       </c>
       <c r="F21">
-        <v>-0.7</v>
+        <v>-0.71</v>
       </c>
       <c r="G21">
         <v>-0.52</v>
       </c>
       <c r="H21">
-        <v>0.21</v>
+        <v>-0.09</v>
       </c>
       <c r="I21">
-        <v>-0.09</v>
+        <v>-0.2</v>
       </c>
       <c r="J21">
-        <v>-0.74</v>
+        <v>-0.75</v>
       </c>
       <c r="K21">
-        <v>-0.85</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1191,13 +1191,13 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.41</v>
+        <v>-0.31</v>
       </c>
       <c r="C22">
-        <v>-0.44</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="D22">
-        <v>-0.83</v>
+        <v>-0.75</v>
       </c>
       <c r="E22">
         <v>-0.76</v>
@@ -1206,19 +1206,19 @@
         <v>-0.77</v>
       </c>
       <c r="G22">
-        <v>-0.32</v>
+        <v>-0.36</v>
       </c>
       <c r="H22">
-        <v>0.04</v>
+        <v>-0.37</v>
       </c>
       <c r="I22">
-        <v>-0.61</v>
+        <v>-0.54</v>
       </c>
       <c r="J22">
-        <v>-0.8</v>
+        <v>-0.79</v>
       </c>
       <c r="K22">
-        <v>-0.84</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1226,34 +1226,34 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0.54</v>
+        <v>0.14</v>
       </c>
       <c r="C23">
-        <v>-0.12</v>
+        <v>0.11</v>
       </c>
       <c r="D23">
-        <v>-0.65</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="E23">
-        <v>-0.51</v>
+        <v>-0.52</v>
       </c>
       <c r="F23">
-        <v>-0.58</v>
+        <v>-0.59</v>
       </c>
       <c r="G23">
-        <v>-0.17</v>
+        <v>-0.22</v>
       </c>
       <c r="H23">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="I23">
-        <v>-0.31</v>
+        <v>-0.37</v>
       </c>
       <c r="J23">
-        <v>-0.53</v>
+        <v>-0.54</v>
       </c>
       <c r="K23">
-        <v>-0.75</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1261,34 +1261,34 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0.86</v>
+        <v>0.02</v>
       </c>
       <c r="C24">
-        <v>-0.42</v>
+        <v>-0.35</v>
       </c>
       <c r="D24">
-        <v>-0.6899999999999999</v>
+        <v>-0.71</v>
       </c>
       <c r="E24">
-        <v>-0.51</v>
+        <v>-0.53</v>
       </c>
       <c r="F24">
-        <v>-0.55</v>
+        <v>-0.57</v>
       </c>
       <c r="G24">
-        <v>-0.19</v>
+        <v>0.15</v>
       </c>
       <c r="H24">
-        <v>0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="I24">
-        <v>-0.4</v>
+        <v>-0.45</v>
       </c>
       <c r="J24">
-        <v>-0.54</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="K24">
-        <v>-0.57</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1296,34 +1296,34 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>0.71</v>
+        <v>-0.28</v>
       </c>
       <c r="C25">
-        <v>-0.64</v>
+        <v>-0.57</v>
       </c>
       <c r="D25">
-        <v>-0.58</v>
+        <v>-0.49</v>
       </c>
       <c r="E25">
-        <v>-0.5</v>
+        <v>-0.51</v>
       </c>
       <c r="F25">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="G25">
+        <v>0.45</v>
+      </c>
+      <c r="H25">
+        <v>-0.55</v>
+      </c>
+      <c r="I25">
         <v>-0.54</v>
       </c>
-      <c r="G25">
-        <v>-0.22</v>
-      </c>
-      <c r="H25">
-        <v>-0.27</v>
-      </c>
-      <c r="I25">
-        <v>-0.46</v>
-      </c>
       <c r="J25">
-        <v>-0.55</v>
+        <v>-0.57</v>
       </c>
       <c r="K25">
-        <v>-0.58</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1331,34 +1331,34 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="C26">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="E26">
         <v>-0.61</v>
       </c>
       <c r="F26">
-        <v>-0.61</v>
+        <v>-0.62</v>
       </c>
       <c r="G26">
-        <v>-0.7</v>
+        <v>-0.89</v>
       </c>
       <c r="H26">
-        <v>-0.49</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="I26">
-        <v>-0.04</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="J26">
         <v>-0.73</v>
       </c>
       <c r="K26">
-        <v>-0.63</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1366,34 +1366,34 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>-0.54</v>
+        <v>0.19</v>
       </c>
       <c r="C27">
-        <v>-0.04</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>-0.64</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="E27">
-        <v>-0.62</v>
+        <v>-0.58</v>
       </c>
       <c r="F27">
-        <v>-0.6</v>
+        <v>-0.61</v>
       </c>
       <c r="G27">
-        <v>-0.59</v>
+        <v>-0.76</v>
       </c>
       <c r="H27">
-        <v>0.55</v>
+        <v>0.25</v>
       </c>
       <c r="I27">
-        <v>-0.27</v>
+        <v>-0.32</v>
       </c>
       <c r="J27">
-        <v>-0.61</v>
+        <v>-0.58</v>
       </c>
       <c r="K27">
-        <v>-0.63</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1401,34 +1401,34 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.83</v>
+        <v>-0.44</v>
       </c>
       <c r="C28">
-        <v>-0.1</v>
+        <v>0.51</v>
       </c>
       <c r="D28">
-        <v>0.66</v>
+        <v>0.83</v>
       </c>
       <c r="E28">
-        <v>-0.31</v>
+        <v>-0.25</v>
       </c>
       <c r="F28">
-        <v>-0.45</v>
+        <v>-0.41</v>
       </c>
       <c r="G28">
-        <v>0.24</v>
+        <v>-0.27</v>
       </c>
       <c r="H28">
-        <v>-0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I28">
-        <v>0.48</v>
+        <v>0.63</v>
       </c>
       <c r="J28">
-        <v>-0.45</v>
+        <v>-0.4</v>
       </c>
       <c r="K28">
-        <v>-0.64</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1436,34 +1436,34 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>0.86</v>
+        <v>0.44</v>
       </c>
       <c r="C29">
-        <v>-0.52</v>
+        <v>-0.5</v>
       </c>
       <c r="D29">
-        <v>-0.78</v>
+        <v>-0.71</v>
       </c>
       <c r="E29">
         <v>-0.8100000000000001</v>
       </c>
       <c r="F29">
+        <v>-0.8</v>
+      </c>
+      <c r="G29">
+        <v>-0.83</v>
+      </c>
+      <c r="H29">
+        <v>-0.51</v>
+      </c>
+      <c r="I29">
+        <v>-0.54</v>
+      </c>
+      <c r="J29">
         <v>-0.79</v>
       </c>
-      <c r="G29">
-        <v>-0.04</v>
-      </c>
-      <c r="H29">
-        <v>-0.04</v>
-      </c>
-      <c r="I29">
-        <v>-0.51</v>
-      </c>
-      <c r="J29">
-        <v>-0.78</v>
-      </c>
       <c r="K29">
-        <v>-0.82</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1471,34 +1471,34 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>0.55</v>
+        <v>-0.54</v>
       </c>
       <c r="C30">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="D30">
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
       <c r="E30">
-        <v>-0.16</v>
+        <v>-0.04</v>
       </c>
       <c r="F30">
-        <v>-0.27</v>
+        <v>-0.24</v>
       </c>
       <c r="G30">
-        <v>0.03</v>
+        <v>-0.78</v>
       </c>
       <c r="H30">
-        <v>0.15</v>
+        <v>-0.03</v>
       </c>
       <c r="I30">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="J30">
-        <v>-0.25</v>
+        <v>-0.17</v>
       </c>
       <c r="K30">
-        <v>-0.5</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1506,34 +1506,34 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>-0</v>
+        <v>0.11</v>
       </c>
       <c r="C31">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="D31">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E31">
-        <v>-0.22</v>
+        <v>-0.17</v>
       </c>
       <c r="F31">
         <v>-0.36</v>
       </c>
       <c r="G31">
-        <v>0.28</v>
+        <v>0.54</v>
       </c>
       <c r="H31">
-        <v>0.41</v>
+        <v>0.83</v>
       </c>
       <c r="I31">
-        <v>0.6899999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="J31">
-        <v>-0.49</v>
+        <v>-0.44</v>
       </c>
       <c r="K31">
-        <v>-0.62</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1541,34 +1541,34 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>0.82</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="C32">
-        <v>-0.5</v>
+        <v>-0.35</v>
       </c>
       <c r="D32">
-        <v>-0.04</v>
+        <v>0.14</v>
       </c>
       <c r="E32">
-        <v>-0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F32">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="G32">
-        <v>-0.16</v>
+        <v>-0.82</v>
       </c>
       <c r="H32">
-        <v>-0.77</v>
+        <v>-0.7</v>
       </c>
       <c r="I32">
-        <v>-0.29</v>
+        <v>-0.17</v>
       </c>
       <c r="J32">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="K32">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1576,34 +1576,34 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C33">
-        <v>-0.26</v>
+        <v>-0.63</v>
       </c>
       <c r="D33">
-        <v>0.43</v>
+        <v>0.55</v>
       </c>
       <c r="E33">
-        <v>-0.01</v>
+        <v>-0.03</v>
       </c>
       <c r="F33">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G33">
-        <v>-0.29</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H33">
-        <v>-0.68</v>
+        <v>-0.79</v>
       </c>
       <c r="I33">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="J33">
-        <v>-0.15</v>
+        <v>-0.2</v>
       </c>
       <c r="K33">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>

--- a/correlation.xlsx
+++ b/correlation.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
-  <si>
-    <t>^GSPC</t>
-  </si>
-  <si>
-    <t>USD</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+  <si>
+    <t>S&amp;P500</t>
+  </si>
+  <si>
+    <t>U.S. Dollar</t>
+  </si>
+  <si>
+    <t>Nasdaq</t>
   </si>
   <si>
     <t>1d</t>
@@ -37,88 +40,88 @@
     <t>120d</t>
   </si>
   <si>
-    <t>AUDUSD=X</t>
-  </si>
-  <si>
-    <t>GBPUSD=X</t>
-  </si>
-  <si>
-    <t>EURUSD=X</t>
-  </si>
-  <si>
-    <t>JPYUSD=X</t>
-  </si>
-  <si>
-    <t>CHFUSD=X</t>
-  </si>
-  <si>
-    <t>MXNUSD=X</t>
-  </si>
-  <si>
-    <t>NZDUSD=X</t>
-  </si>
-  <si>
-    <t>BTC-USD</t>
-  </si>
-  <si>
-    <t>^NDX</t>
-  </si>
-  <si>
-    <t>^DJI</t>
-  </si>
-  <si>
-    <t>^RUT</t>
-  </si>
-  <si>
-    <t>UCO</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>KOLD</t>
-  </si>
-  <si>
-    <t>CORN</t>
-  </si>
-  <si>
-    <t>ZS=F</t>
-  </si>
-  <si>
-    <t>ZL=F</t>
-  </si>
-  <si>
-    <t>ZM=F</t>
-  </si>
-  <si>
-    <t>ZW=F</t>
-  </si>
-  <si>
-    <t>KE=F</t>
-  </si>
-  <si>
-    <t>GOLD</t>
-  </si>
-  <si>
-    <t>SI=F</t>
-  </si>
-  <si>
-    <t>HG=F</t>
-  </si>
-  <si>
-    <t>PA=F</t>
-  </si>
-  <si>
-    <t>CC=F</t>
-  </si>
-  <si>
-    <t>CT=F</t>
-  </si>
-  <si>
-    <t>KC=F</t>
-  </si>
-  <si>
-    <t>SB=F</t>
+    <t>Australian Dollar</t>
+  </si>
+  <si>
+    <t>British Pound Sterlin</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>Japanese Yen</t>
+  </si>
+  <si>
+    <t>Swiss Franc</t>
+  </si>
+  <si>
+    <t>Mexican Peso</t>
+  </si>
+  <si>
+    <t>New Zealand Dollar</t>
+  </si>
+  <si>
+    <t>Bitcoin</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>Dow Jones</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Crude Oil</t>
+  </si>
+  <si>
+    <t>Gasoline</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>Soybeans</t>
+  </si>
+  <si>
+    <t>Soybean Oil</t>
+  </si>
+  <si>
+    <t>Soybean Meal</t>
+  </si>
+  <si>
+    <t>Wheat SRW</t>
+  </si>
+  <si>
+    <t>Wheat HRW</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Palladium</t>
+  </si>
+  <si>
+    <t>Cocoa</t>
+  </si>
+  <si>
+    <t>Cotton</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Sugar</t>
   </si>
 </sst>
 </file>
@@ -497,16 +500,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:16">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -522,227 +525,324 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="P2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.49</v>
+        <v>0.77</v>
       </c>
       <c r="C4">
-        <v>0.45</v>
+        <v>0.26</v>
       </c>
       <c r="D4">
-        <v>0.87</v>
+        <v>0.74</v>
       </c>
       <c r="E4">
-        <v>-0.05</v>
+        <v>-0.09</v>
       </c>
       <c r="F4">
         <v>-0.04</v>
       </c>
       <c r="G4">
+        <v>0.74</v>
+      </c>
+      <c r="H4">
+        <v>0.09</v>
+      </c>
+      <c r="I4">
+        <v>0.4</v>
+      </c>
+      <c r="J4">
+        <v>-0.3</v>
+      </c>
+      <c r="K4">
+        <v>-0.35</v>
+      </c>
+      <c r="L4">
+        <v>0.76</v>
+      </c>
+      <c r="M4">
+        <v>0.3</v>
+      </c>
+      <c r="N4">
+        <v>0.72</v>
+      </c>
+      <c r="O4">
         <v>-0.21</v>
       </c>
-      <c r="H4">
-        <v>0.15</v>
-      </c>
-      <c r="I4">
-        <v>0.59</v>
-      </c>
-      <c r="J4">
-        <v>-0.28</v>
-      </c>
-      <c r="K4">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="P4">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.44</v>
+        <v>0.42</v>
       </c>
       <c r="C5">
-        <v>-0.19</v>
+        <v>0.02</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-0.09</v>
       </c>
       <c r="E5">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="F5">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="G5">
-        <v>-0.45</v>
+        <v>0.35</v>
       </c>
       <c r="H5">
-        <v>0.46</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I5">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="J5">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="K5">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>0.37</v>
+      </c>
+      <c r="M5">
+        <v>0.18</v>
+      </c>
+      <c r="N5">
+        <v>-0</v>
+      </c>
+      <c r="O5">
+        <v>0.23</v>
+      </c>
+      <c r="P5">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.26</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C6">
+        <v>0.48</v>
+      </c>
+      <c r="D6">
+        <v>0.21</v>
+      </c>
+      <c r="E6">
+        <v>0.47</v>
+      </c>
+      <c r="F6">
+        <v>0.46</v>
+      </c>
+      <c r="G6">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.66</v>
+      </c>
+      <c r="I6">
+        <v>0.49</v>
+      </c>
+      <c r="J6">
+        <v>0.57</v>
+      </c>
+      <c r="K6">
+        <v>0.38</v>
+      </c>
+      <c r="L6">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.62</v>
+      </c>
+      <c r="N6">
+        <v>0.3</v>
+      </c>
+      <c r="O6">
+        <v>0.52</v>
+      </c>
+      <c r="P6">
         <v>0.54</v>
       </c>
-      <c r="D6">
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
         <v>0.23</v>
       </c>
-      <c r="E6">
-        <v>0.51</v>
-      </c>
-      <c r="F6">
-        <v>0.47</v>
-      </c>
-      <c r="G6">
-        <v>-0.79</v>
-      </c>
-      <c r="H6">
-        <v>0.72</v>
-      </c>
-      <c r="I6">
+      <c r="C7">
+        <v>0.12</v>
+      </c>
+      <c r="D7">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.11</v>
+      </c>
+      <c r="F7">
+        <v>0.21</v>
+      </c>
+      <c r="G7">
+        <v>0.36</v>
+      </c>
+      <c r="H7">
         <v>0.54</v>
       </c>
-      <c r="J6">
-        <v>0.59</v>
-      </c>
-      <c r="K6">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>-0.78</v>
-      </c>
-      <c r="C7">
-        <v>-0.2</v>
-      </c>
-      <c r="D7">
-        <v>-0.8</v>
-      </c>
-      <c r="E7">
-        <v>0.12</v>
-      </c>
-      <c r="F7">
-        <v>0.22</v>
-      </c>
-      <c r="G7">
-        <v>0.68</v>
-      </c>
-      <c r="H7">
-        <v>0.45</v>
-      </c>
       <c r="I7">
-        <v>-0.41</v>
+        <v>-0.34</v>
       </c>
       <c r="J7">
         <v>0.41</v>
       </c>
       <c r="K7">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>0.43</v>
+      </c>
+      <c r="L7">
+        <v>0.31</v>
+      </c>
+      <c r="M7">
+        <v>0.29</v>
+      </c>
+      <c r="N7">
+        <v>-0.73</v>
+      </c>
+      <c r="O7">
+        <v>0.28</v>
+      </c>
+      <c r="P7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.54</v>
+        <v>-0.92</v>
       </c>
       <c r="C8">
-        <v>0.46</v>
+        <v>0.17</v>
       </c>
       <c r="D8">
-        <v>0.04</v>
+        <v>-0.16</v>
       </c>
       <c r="E8">
-        <v>0.46</v>
+        <v>0.37</v>
       </c>
       <c r="F8">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
       <c r="G8">
-        <v>-0.45</v>
+        <v>-0.96</v>
       </c>
       <c r="H8">
-        <v>0.31</v>
+        <v>0.1</v>
       </c>
       <c r="I8">
-        <v>0.18</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="J8">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="K8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>0.23</v>
+      </c>
+      <c r="L8">
+        <v>-0.95</v>
+      </c>
+      <c r="M8">
+        <v>0.32</v>
+      </c>
+      <c r="N8">
+        <v>-0.06</v>
+      </c>
+      <c r="O8">
+        <v>0.44</v>
+      </c>
+      <c r="P8">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B9">
-        <v>-0.18</v>
+        <v>0.98</v>
       </c>
       <c r="C9">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="D9">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="E9">
         <v>0.9</v>
@@ -765,115 +865,175 @@
       <c r="K9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.84</v>
+      </c>
+      <c r="N9">
+        <v>0.82</v>
+      </c>
+      <c r="O9">
+        <v>0.96</v>
+      </c>
+      <c r="P9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.34</v>
+        <v>-0.71</v>
       </c>
       <c r="C10">
+        <v>0.23</v>
+      </c>
+      <c r="D10">
+        <v>0.88</v>
+      </c>
+      <c r="E10">
+        <v>0.12</v>
+      </c>
+      <c r="F10">
+        <v>-0.06</v>
+      </c>
+      <c r="G10">
+        <v>-0.71</v>
+      </c>
+      <c r="H10">
+        <v>-0.13</v>
+      </c>
+      <c r="I10">
+        <v>0.49</v>
+      </c>
+      <c r="J10">
+        <v>-0.19</v>
+      </c>
+      <c r="K10">
+        <v>-0.41</v>
+      </c>
+      <c r="L10">
+        <v>-0.7</v>
+      </c>
+      <c r="M10">
+        <v>0.25</v>
+      </c>
+      <c r="N10">
+        <v>0.86</v>
+      </c>
+      <c r="O10">
+        <v>-0.06</v>
+      </c>
+      <c r="P10">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0.6</v>
+      </c>
+      <c r="C11">
+        <v>0.24</v>
+      </c>
+      <c r="D11">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.16</v>
+      </c>
+      <c r="F11">
+        <v>0.28</v>
+      </c>
+      <c r="G11">
+        <v>0.53</v>
+      </c>
+      <c r="H11">
+        <v>0.53</v>
+      </c>
+      <c r="I11">
+        <v>0.5</v>
+      </c>
+      <c r="J11">
+        <v>0.05</v>
+      </c>
+      <c r="K11">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L11">
+        <v>0.57</v>
+      </c>
+      <c r="M11">
+        <v>0.4</v>
+      </c>
+      <c r="N11">
         <v>0.68</v>
       </c>
-      <c r="D10">
-        <v>0.95</v>
-      </c>
-      <c r="E10">
-        <v>0.18</v>
-      </c>
-      <c r="F10">
-        <v>-0.04</v>
-      </c>
-      <c r="G10">
-        <v>-0.47</v>
-      </c>
-      <c r="H10">
-        <v>0.17</v>
-      </c>
-      <c r="I10">
+      <c r="O11">
+        <v>0.09</v>
+      </c>
+      <c r="P11">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0.83</v>
+      </c>
+      <c r="C12">
+        <v>0.4</v>
+      </c>
+      <c r="D12">
+        <v>0.64</v>
+      </c>
+      <c r="E12">
+        <v>-0.12</v>
+      </c>
+      <c r="F12">
+        <v>0.14</v>
+      </c>
+      <c r="G12">
+        <v>0.89</v>
+      </c>
+      <c r="H12">
+        <v>0.8</v>
+      </c>
+      <c r="I12">
         <v>0.68</v>
       </c>
-      <c r="J10">
-        <v>-0.15</v>
-      </c>
-      <c r="K10">
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>-0.36</v>
-      </c>
-      <c r="C11">
-        <v>0.32</v>
-      </c>
-      <c r="D11">
-        <v>0.79</v>
-      </c>
-      <c r="E11">
-        <v>0.17</v>
-      </c>
-      <c r="F11">
-        <v>0.27</v>
-      </c>
-      <c r="G11">
-        <v>-0.49</v>
-      </c>
-      <c r="H11">
-        <v>0.58</v>
-      </c>
-      <c r="I11">
-        <v>0.64</v>
-      </c>
-      <c r="J11">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="K11">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>-0.21</v>
-      </c>
-      <c r="C12">
-        <v>0.14</v>
-      </c>
-      <c r="D12">
-        <v>0.54</v>
-      </c>
-      <c r="E12">
-        <v>-0.11</v>
-      </c>
-      <c r="F12">
-        <v>0.13</v>
-      </c>
-      <c r="G12">
-        <v>0.45</v>
-      </c>
-      <c r="H12">
-        <v>0.74</v>
-      </c>
-      <c r="I12">
-        <v>0.5600000000000001</v>
-      </c>
       <c r="J12">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="K12">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>0.01</v>
+      </c>
+      <c r="L12">
+        <v>0.86</v>
+      </c>
+      <c r="M12">
+        <v>0.5</v>
+      </c>
+      <c r="N12">
+        <v>0.61</v>
+      </c>
+      <c r="O12">
+        <v>-0.19</v>
+      </c>
+      <c r="P12">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -891,13 +1051,13 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>-0.18</v>
+        <v>0.98</v>
       </c>
       <c r="H13">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="I13">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="J13">
         <v>0.9</v>
@@ -905,48 +1065,78 @@
       <c r="K13">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>0.99</v>
+      </c>
+      <c r="M13">
+        <v>0.96</v>
+      </c>
+      <c r="N13">
+        <v>0.98</v>
+      </c>
+      <c r="O13">
+        <v>0.97</v>
+      </c>
+      <c r="P13">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>0.23</v>
+        <v>0.99</v>
       </c>
       <c r="C14">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="D14">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="E14">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F14">
         <v>0.95</v>
       </c>
       <c r="G14">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
       <c r="I14">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="J14">
+        <v>0.96</v>
+      </c>
+      <c r="K14">
+        <v>0.92</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
         <v>0.97</v>
-      </c>
-      <c r="K14">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>0.9</v>
       </c>
       <c r="C15">
         <v>0.9399999999999999</v>
@@ -955,214 +1145,304 @@
         <v>0.98</v>
       </c>
       <c r="E15">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F15">
         <v>0.95</v>
       </c>
       <c r="G15">
-        <v>-0.61</v>
+        <v>0.91</v>
       </c>
       <c r="H15">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="I15">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="J15">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="K15">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>0.93</v>
+      </c>
+      <c r="M15">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="N15">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.91</v>
+      </c>
+      <c r="P15">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="C16">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="D16">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E16">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F16">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="G16">
-        <v>0.18</v>
+        <v>0.87</v>
       </c>
       <c r="H16">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="I16">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="J16">
         <v>0.96</v>
       </c>
       <c r="K16">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>0.74</v>
+      </c>
+      <c r="L16">
+        <v>0.87</v>
+      </c>
+      <c r="M16">
+        <v>0.88</v>
+      </c>
+      <c r="N16">
+        <v>0.89</v>
+      </c>
+      <c r="O16">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="P16">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>0.64</v>
+        <v>0.82</v>
       </c>
       <c r="C17">
-        <v>-0.31</v>
+        <v>-0.03</v>
       </c>
       <c r="D17">
-        <v>-0.01</v>
+        <v>-0.03</v>
       </c>
       <c r="E17">
-        <v>-0.62</v>
+        <v>-0.63</v>
       </c>
       <c r="F17">
         <v>-0.65</v>
       </c>
       <c r="G17">
-        <v>-0.51</v>
+        <v>0.76</v>
       </c>
       <c r="H17">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="I17">
-        <v>-0.01</v>
+        <v>0.05</v>
       </c>
       <c r="J17">
+        <v>-0.77</v>
+      </c>
+      <c r="K17">
+        <v>-0.75</v>
+      </c>
+      <c r="L17">
+        <v>0.79</v>
+      </c>
+      <c r="M17">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>-0.74</v>
+      </c>
+      <c r="P17">
         <v>-0.78</v>
       </c>
-      <c r="K17">
-        <v>-0.74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="C18">
-        <v>-0.12</v>
+        <v>0.2</v>
       </c>
       <c r="D18">
-        <v>-0.16</v>
+        <v>-0.19</v>
       </c>
       <c r="E18">
-        <v>-0.64</v>
+        <v>-0.65</v>
       </c>
       <c r="F18">
         <v>-0.68</v>
       </c>
       <c r="G18">
-        <v>-0.62</v>
+        <v>0.77</v>
       </c>
       <c r="H18">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
       <c r="I18">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="J18">
-        <v>-0.79</v>
+        <v>-0.78</v>
       </c>
       <c r="K18">
+        <v>-0.77</v>
+      </c>
+      <c r="L18">
+        <v>0.8</v>
+      </c>
+      <c r="M18">
+        <v>0.28</v>
+      </c>
+      <c r="N18">
+        <v>-0.13</v>
+      </c>
+      <c r="O18">
+        <v>-0.77</v>
+      </c>
+      <c r="P18">
+        <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0.95</v>
+      </c>
+      <c r="C19">
+        <v>0.4</v>
+      </c>
+      <c r="D19">
         <v>-0.76</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>-0.67</v>
-      </c>
-      <c r="C19">
-        <v>-0.01</v>
-      </c>
-      <c r="D19">
-        <v>-0.77</v>
-      </c>
       <c r="E19">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="F19">
         <v>0.57</v>
       </c>
       <c r="G19">
-        <v>0.31</v>
+        <v>0.92</v>
       </c>
       <c r="H19">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="I19">
-        <v>-0.3</v>
+        <v>-0.21</v>
       </c>
       <c r="J19">
         <v>0.8100000000000001</v>
       </c>
       <c r="K19">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>0.73</v>
+      </c>
+      <c r="L19">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="M19">
+        <v>0.5</v>
+      </c>
+      <c r="N19">
+        <v>-0.68</v>
+      </c>
+      <c r="O19">
+        <v>0.76</v>
+      </c>
+      <c r="P19">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>0.75</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="C20">
-        <v>-0.49</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="D20">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="E20">
         <v>-0.54</v>
       </c>
       <c r="F20">
-        <v>-0.58</v>
+        <v>-0.59</v>
       </c>
       <c r="G20">
-        <v>-0.75</v>
+        <v>-0.66</v>
       </c>
       <c r="H20">
-        <v>-0.9</v>
+        <v>-0.93</v>
       </c>
       <c r="I20">
-        <v>-0.08</v>
+        <v>-0.15</v>
       </c>
       <c r="J20">
-        <v>-0.71</v>
+        <v>-0.72</v>
       </c>
       <c r="K20">
-        <v>-0.62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>-0.65</v>
+      </c>
+      <c r="L20">
+        <v>-0.65</v>
+      </c>
+      <c r="M20">
+        <v>-0.7</v>
+      </c>
+      <c r="N20">
+        <v>0.36</v>
+      </c>
+      <c r="O20">
+        <v>-0.65</v>
+      </c>
+      <c r="P20">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>-0.41</v>
+        <v>0.93</v>
       </c>
       <c r="C21">
-        <v>-0.25</v>
+        <v>-0.03</v>
       </c>
       <c r="D21">
-        <v>-0.38</v>
+        <v>-0.42</v>
       </c>
       <c r="E21">
         <v>-0.68</v>
@@ -1171,103 +1451,148 @@
         <v>-0.71</v>
       </c>
       <c r="G21">
-        <v>-0.52</v>
+        <v>0.93</v>
       </c>
       <c r="H21">
-        <v>-0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I21">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="J21">
-        <v>-0.75</v>
+        <v>-0.74</v>
       </c>
       <c r="K21">
         <v>-0.86</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>0.93</v>
+      </c>
+      <c r="M21">
+        <v>-0.21</v>
+      </c>
+      <c r="N21">
+        <v>-0.44</v>
+      </c>
+      <c r="O21">
+        <v>-0.75</v>
+      </c>
+      <c r="P21">
+        <v>-0.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>-0.31</v>
+        <v>-0.05</v>
       </c>
       <c r="C22">
-        <v>-0.5600000000000001</v>
+        <v>-0.28</v>
       </c>
       <c r="D22">
+        <v>-0.82</v>
+      </c>
+      <c r="E22">
         <v>-0.75</v>
-      </c>
-      <c r="E22">
-        <v>-0.76</v>
       </c>
       <c r="F22">
         <v>-0.77</v>
       </c>
       <c r="G22">
-        <v>-0.36</v>
+        <v>-0.03</v>
       </c>
       <c r="H22">
-        <v>-0.37</v>
+        <v>-0.31</v>
       </c>
       <c r="I22">
-        <v>-0.54</v>
+        <v>-0.53</v>
       </c>
       <c r="J22">
         <v>-0.79</v>
       </c>
       <c r="K22">
+        <v>-0.84</v>
+      </c>
+      <c r="L22">
+        <v>-0.02</v>
+      </c>
+      <c r="M22">
+        <v>-0.43</v>
+      </c>
+      <c r="N22">
+        <v>-0.78</v>
+      </c>
+      <c r="O22">
+        <v>-0.8</v>
+      </c>
+      <c r="P22">
         <v>-0.85</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>0.14</v>
+        <v>0.87</v>
       </c>
       <c r="C23">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="D23">
+        <v>-0.72</v>
+      </c>
+      <c r="E23">
+        <v>-0.48</v>
+      </c>
+      <c r="F23">
+        <v>-0.57</v>
+      </c>
+      <c r="G23">
+        <v>0.82</v>
+      </c>
+      <c r="H23">
+        <v>0.44</v>
+      </c>
+      <c r="I23">
+        <v>-0.28</v>
+      </c>
+      <c r="J23">
+        <v>-0.5</v>
+      </c>
+      <c r="K23">
+        <v>-0.75</v>
+      </c>
+      <c r="L23">
+        <v>0.84</v>
+      </c>
+      <c r="M23">
+        <v>0.13</v>
+      </c>
+      <c r="N23">
         <v>-0.6899999999999999</v>
       </c>
-      <c r="E23">
-        <v>-0.52</v>
-      </c>
-      <c r="F23">
-        <v>-0.59</v>
-      </c>
-      <c r="G23">
-        <v>-0.22</v>
-      </c>
-      <c r="H23">
-        <v>0.35</v>
-      </c>
-      <c r="I23">
-        <v>-0.37</v>
-      </c>
-      <c r="J23">
-        <v>-0.54</v>
-      </c>
-      <c r="K23">
-        <v>-0.76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="O23">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="P23">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>0.02</v>
+        <v>-0.73</v>
       </c>
       <c r="C24">
-        <v>-0.35</v>
+        <v>-0.41</v>
       </c>
       <c r="D24">
-        <v>-0.71</v>
+        <v>-0.68</v>
       </c>
       <c r="E24">
         <v>-0.53</v>
@@ -1276,48 +1601,63 @@
         <v>-0.57</v>
       </c>
       <c r="G24">
-        <v>0.15</v>
+        <v>-0.68</v>
       </c>
       <c r="H24">
-        <v>-0.13</v>
+        <v>-0.22</v>
       </c>
       <c r="I24">
-        <v>-0.45</v>
+        <v>-0.35</v>
       </c>
       <c r="J24">
         <v>-0.5600000000000001</v>
       </c>
       <c r="K24">
-        <v>-0.59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>-0.6</v>
+      </c>
+      <c r="L24">
+        <v>-0.7</v>
+      </c>
+      <c r="M24">
+        <v>-0.5</v>
+      </c>
+      <c r="N24">
+        <v>-0.65</v>
+      </c>
+      <c r="O24">
+        <v>-0.57</v>
+      </c>
+      <c r="P24">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>-0.28</v>
+        <v>-0.91</v>
       </c>
       <c r="C25">
-        <v>-0.57</v>
+        <v>-0.73</v>
       </c>
       <c r="D25">
         <v>-0.49</v>
       </c>
       <c r="E25">
-        <v>-0.51</v>
+        <v>-0.49</v>
       </c>
       <c r="F25">
-        <v>-0.5600000000000001</v>
+        <v>-0.54</v>
       </c>
       <c r="G25">
-        <v>0.45</v>
+        <v>-0.89</v>
       </c>
       <c r="H25">
-        <v>-0.55</v>
+        <v>-0.62</v>
       </c>
       <c r="I25">
-        <v>-0.54</v>
+        <v>-0.45</v>
       </c>
       <c r="J25">
         <v>-0.57</v>
@@ -1325,124 +1665,184 @@
       <c r="K25">
         <v>-0.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>-0.89</v>
+      </c>
+      <c r="M25">
+        <v>-0.8</v>
+      </c>
+      <c r="N25">
+        <v>-0.53</v>
+      </c>
+      <c r="O25">
+        <v>-0.55</v>
+      </c>
+      <c r="P25">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>0.58</v>
+        <v>-0.22</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>-0.37</v>
       </c>
       <c r="D26">
         <v>0.26</v>
       </c>
       <c r="E26">
-        <v>-0.61</v>
+        <v>-0.62</v>
       </c>
       <c r="F26">
         <v>-0.62</v>
       </c>
       <c r="G26">
-        <v>-0.89</v>
+        <v>-0.26</v>
       </c>
       <c r="H26">
-        <v>-0.5600000000000001</v>
+        <v>-0.7</v>
       </c>
       <c r="I26">
-        <v>-0.07000000000000001</v>
+        <v>-0.13</v>
       </c>
       <c r="J26">
         <v>-0.73</v>
       </c>
       <c r="K26">
+        <v>-0.65</v>
+      </c>
+      <c r="L26">
+        <v>-0.25</v>
+      </c>
+      <c r="M26">
+        <v>-0.52</v>
+      </c>
+      <c r="N26">
+        <v>0.21</v>
+      </c>
+      <c r="O26">
+        <v>-0.71</v>
+      </c>
+      <c r="P26">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>0.6</v>
+      </c>
+      <c r="C27">
+        <v>0.06</v>
+      </c>
+      <c r="D27">
+        <v>-0.62</v>
+      </c>
+      <c r="E27">
+        <v>-0.61</v>
+      </c>
+      <c r="F27">
         <v>-0.64</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>0.19</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>-0.5600000000000001</v>
-      </c>
-      <c r="E27">
+      <c r="G27">
+        <v>0.46</v>
+      </c>
+      <c r="H27">
+        <v>0.33</v>
+      </c>
+      <c r="I27">
+        <v>-0.21</v>
+      </c>
+      <c r="J27">
+        <v>-0.6</v>
+      </c>
+      <c r="K27">
+        <v>-0.67</v>
+      </c>
+      <c r="L27">
+        <v>0.51</v>
+      </c>
+      <c r="M27">
+        <v>-0.05</v>
+      </c>
+      <c r="N27">
         <v>-0.58</v>
       </c>
-      <c r="F27">
-        <v>-0.61</v>
-      </c>
-      <c r="G27">
-        <v>-0.76</v>
-      </c>
-      <c r="H27">
-        <v>0.25</v>
-      </c>
-      <c r="I27">
-        <v>-0.32</v>
-      </c>
-      <c r="J27">
-        <v>-0.58</v>
-      </c>
-      <c r="K27">
-        <v>-0.66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="O27">
+        <v>-0.64</v>
+      </c>
+      <c r="P27">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C28">
+        <v>0.41</v>
+      </c>
+      <c r="D28">
+        <v>0.73</v>
+      </c>
+      <c r="E28">
+        <v>-0.28</v>
+      </c>
+      <c r="F28">
         <v>-0.44</v>
       </c>
-      <c r="C28">
-        <v>0.51</v>
-      </c>
-      <c r="D28">
-        <v>0.83</v>
-      </c>
-      <c r="E28">
-        <v>-0.25</v>
-      </c>
-      <c r="F28">
-        <v>-0.41</v>
-      </c>
       <c r="G28">
-        <v>-0.27</v>
+        <v>0.91</v>
       </c>
       <c r="H28">
-        <v>0.08</v>
+        <v>0.28</v>
       </c>
       <c r="I28">
-        <v>0.63</v>
+        <v>0.54</v>
       </c>
       <c r="J28">
-        <v>-0.4</v>
+        <v>-0.43</v>
       </c>
       <c r="K28">
-        <v>-0.62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>-0.64</v>
+      </c>
+      <c r="L28">
+        <v>0.92</v>
+      </c>
+      <c r="M28">
+        <v>0.55</v>
+      </c>
+      <c r="N28">
+        <v>0.76</v>
+      </c>
+      <c r="O28">
+        <v>-0.37</v>
+      </c>
+      <c r="P28">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>0.44</v>
+        <v>0.93</v>
       </c>
       <c r="C29">
-        <v>-0.5</v>
+        <v>-0.57</v>
       </c>
       <c r="D29">
-        <v>-0.71</v>
+        <v>-0.75</v>
       </c>
       <c r="E29">
         <v>-0.8100000000000001</v>
@@ -1451,172 +1851,248 @@
         <v>-0.8</v>
       </c>
       <c r="G29">
+        <v>0.89</v>
+      </c>
+      <c r="H29">
+        <v>-0.48</v>
+      </c>
+      <c r="I29">
+        <v>-0.41</v>
+      </c>
+      <c r="J29">
+        <v>-0.76</v>
+      </c>
+      <c r="K29">
         <v>-0.83</v>
       </c>
-      <c r="H29">
+      <c r="L29">
+        <v>0.92</v>
+      </c>
+      <c r="M29">
+        <v>-0.63</v>
+      </c>
+      <c r="N29">
+        <v>-0.7</v>
+      </c>
+      <c r="O29">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="P29">
+        <v>-0.86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>0.85</v>
+      </c>
+      <c r="C30">
+        <v>0.06</v>
+      </c>
+      <c r="D30">
+        <v>0.2</v>
+      </c>
+      <c r="E30">
+        <v>-0.12</v>
+      </c>
+      <c r="F30">
+        <v>-0.28</v>
+      </c>
+      <c r="G30">
+        <v>0.89</v>
+      </c>
+      <c r="H30">
+        <v>0.06</v>
+      </c>
+      <c r="I30">
+        <v>0.08</v>
+      </c>
+      <c r="J30">
+        <v>-0.21</v>
+      </c>
+      <c r="K30">
         <v>-0.51</v>
       </c>
-      <c r="I29">
-        <v>-0.54</v>
-      </c>
-      <c r="J29">
-        <v>-0.79</v>
-      </c>
-      <c r="K29">
-        <v>-0.85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>-0.54</v>
-      </c>
-      <c r="C30">
-        <v>0.14</v>
-      </c>
-      <c r="D30">
-        <v>0.35</v>
-      </c>
-      <c r="E30">
-        <v>-0.04</v>
-      </c>
-      <c r="F30">
-        <v>-0.24</v>
-      </c>
-      <c r="G30">
-        <v>-0.78</v>
-      </c>
-      <c r="H30">
-        <v>-0.03</v>
-      </c>
-      <c r="I30">
-        <v>0.25</v>
-      </c>
-      <c r="J30">
-        <v>-0.17</v>
-      </c>
-      <c r="K30">
-        <v>-0.48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>0.88</v>
+      </c>
+      <c r="M30">
+        <v>-0.09</v>
+      </c>
+      <c r="N30">
+        <v>0.21</v>
+      </c>
+      <c r="O30">
+        <v>-0.18</v>
+      </c>
+      <c r="P30">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>0.11</v>
+        <v>-0.71</v>
       </c>
       <c r="C31">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="D31">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="E31">
         <v>-0.17</v>
       </c>
       <c r="F31">
+        <v>-0.37</v>
+      </c>
+      <c r="G31">
+        <v>-0.66</v>
+      </c>
+      <c r="H31">
+        <v>0.73</v>
+      </c>
+      <c r="I31">
+        <v>0.58</v>
+      </c>
+      <c r="J31">
+        <v>-0.46</v>
+      </c>
+      <c r="K31">
+        <v>-0.64</v>
+      </c>
+      <c r="L31">
+        <v>-0.67</v>
+      </c>
+      <c r="M31">
+        <v>0.78</v>
+      </c>
+      <c r="N31">
+        <v>0.9</v>
+      </c>
+      <c r="O31">
+        <v>-0.28</v>
+      </c>
+      <c r="P31">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>-0.84</v>
+      </c>
+      <c r="C32">
+        <v>-0.75</v>
+      </c>
+      <c r="D32">
+        <v>-0.03</v>
+      </c>
+      <c r="E32">
+        <v>-0.04</v>
+      </c>
+      <c r="F32">
+        <v>0.04</v>
+      </c>
+      <c r="G32">
+        <v>-0.78</v>
+      </c>
+      <c r="H32">
+        <v>-0.83</v>
+      </c>
+      <c r="I32">
+        <v>-0.39</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0.13</v>
+      </c>
+      <c r="L32">
+        <v>-0.8</v>
+      </c>
+      <c r="M32">
+        <v>-0.67</v>
+      </c>
+      <c r="N32">
+        <v>-0.02</v>
+      </c>
+      <c r="O32">
+        <v>-0.01</v>
+      </c>
+      <c r="P32">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>-0.42</v>
+      </c>
+      <c r="C33">
+        <v>-0.76</v>
+      </c>
+      <c r="D33">
+        <v>0.37</v>
+      </c>
+      <c r="E33">
+        <v>-0.06</v>
+      </c>
+      <c r="F33">
+        <v>0.19</v>
+      </c>
+      <c r="G33">
+        <v>-0.35</v>
+      </c>
+      <c r="H33">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="I33">
+        <v>-0.15</v>
+      </c>
+      <c r="J33">
+        <v>-0.25</v>
+      </c>
+      <c r="K33">
+        <v>0.15</v>
+      </c>
+      <c r="L33">
         <v>-0.36</v>
       </c>
-      <c r="G31">
-        <v>0.54</v>
-      </c>
-      <c r="H31">
-        <v>0.83</v>
-      </c>
-      <c r="I31">
-        <v>0.77</v>
-      </c>
-      <c r="J31">
-        <v>-0.44</v>
-      </c>
-      <c r="K31">
-        <v>-0.63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>-0.6899999999999999</v>
-      </c>
-      <c r="C32">
-        <v>-0.35</v>
-      </c>
-      <c r="D32">
-        <v>0.14</v>
-      </c>
-      <c r="E32">
-        <v>0.05</v>
-      </c>
-      <c r="F32">
-        <v>0.11</v>
-      </c>
-      <c r="G32">
-        <v>-0.82</v>
-      </c>
-      <c r="H32">
-        <v>-0.7</v>
-      </c>
-      <c r="I32">
-        <v>-0.17</v>
-      </c>
-      <c r="J32">
-        <v>0.06</v>
-      </c>
-      <c r="K32">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="C33">
-        <v>-0.63</v>
-      </c>
-      <c r="D33">
-        <v>0.55</v>
-      </c>
-      <c r="E33">
-        <v>-0.03</v>
-      </c>
-      <c r="F33">
-        <v>0.2</v>
-      </c>
-      <c r="G33">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="H33">
-        <v>-0.79</v>
-      </c>
-      <c r="I33">
-        <v>0.12</v>
-      </c>
-      <c r="J33">
-        <v>-0.2</v>
-      </c>
-      <c r="K33">
-        <v>0.17</v>
+      <c r="M33">
+        <v>-0.83</v>
+      </c>
+      <c r="N33">
+        <v>0.31</v>
+      </c>
+      <c r="O33">
+        <v>-0.11</v>
+      </c>
+      <c r="P33">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:K100">
+  <conditionalFormatting sqref="B3:P100">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>-0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:K100">
+  <conditionalFormatting sqref="B4:P100">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>0.5</formula>
     </cfRule>
